--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Inventory\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775BD59-16E8-407F-8A73-C8C1812795FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78019E34-B9CC-4679-80A1-18BFB25AA45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>SL. No</t>
   </si>
@@ -73,65 +73,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Activity",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">It should display the Select range, All types, All lists dropdown, New stock count, Record adjustment and Export
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Activity"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,It get display the Date Select range, All Types, All Lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">It displayed the particular Type of sku activity details </t>
@@ -220,7 +161,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">It goes to </t>
+      <t xml:space="preserve">It we take </t>
     </r>
     <r>
       <rPr>
@@ -231,7 +172,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Stock count screen</t>
+      <t>Adjustment record</t>
     </r>
     <r>
       <rPr>
@@ -241,12 +182,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> in there Taken on and name and Est.value 1.How many items and SKU search box and Export</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It we take </t>
+      <t xml:space="preserve"> ,it will comse pop up on the Created date and name                                                                                                                                   1.Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes         2.If you click 'X' the returns back to Activity page                           </t>
+    </r>
+  </si>
+  <si>
+    <t>It display the details of exact item</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
     </r>
     <r>
       <rPr>
@@ -255,47 +199,12 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustment record</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,it will comse pop up on the Created date and name                                                                                                                                   1.Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes         2.If you click 'X' the returns back to Activity page                           </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">And search SKU and find the exact item </t>
-  </si>
-  <si>
-    <t>It display the details of exact item</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>"Export"</t>
     </r>
   </si>
   <si>
     <t>As expected the details will display</t>
-  </si>
-  <si>
-    <t>If click the Export It will download the file</t>
   </si>
   <si>
     <t>Click back arrow</t>
@@ -426,13 +335,228 @@
   </si>
   <si>
     <t>Enter the required data and click Save button then it comes Successfully record added</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Activity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,It get display the Date Select range, All Types, All Lists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown    2.It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Date, Type, List, Created by, Est.value" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Activity",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It should display the Select range, All types, All lists dropdown, New stock count, Record adjustment and Export
+2.It should have the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Date, Type, List, Created by, Est.value"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                 *In the 'Date' will be renamed to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Created'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to be clearer. The 'Type' filter will also include a new option </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Stock count amendments'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.(new implementation)</t>
+    </r>
+  </si>
+  <si>
+    <t>If click the Export It will download the file                                                              *When exporting the data from this page we will include the 'Stock count corrections' in similar format to 'Adjustments'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It goes to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stock count screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in there "As of date and Est.value"                      1.How many items and SKU search box and Export</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.And search SKU and find the exact item                                                               2.Top right side</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Created by Buyer_Manual_01 date and Last updated date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will show the timestamp of the most recent amendment if any (new implementation)</t>
+    </r>
+  </si>
+  <si>
+    <t>If the qty has been amended, the value for the column is clickable and can show previously recorded quantities</t>
+  </si>
+  <si>
+    <t>It should display the 'History' pop up screen ,in there Date, User, Qty</t>
+  </si>
+  <si>
+    <r>
+      <t>There is a new</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'Stock count correction' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>pop up screen detail page. It shows the previous qty and the amended qty.</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +612,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -555,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -595,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -932,10 +1079,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -955,10 +1102,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -975,13 +1122,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -998,13 +1145,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -1021,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1044,19 +1191,19 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1067,19 +1214,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1089,20 +1236,17 @@
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1113,13 +1257,14 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1129,20 +1274,20 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1152,20 +1297,20 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1176,13 +1321,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>11</v>
@@ -1199,15 +1344,61 @@
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78019E34-B9CC-4679-80A1-18BFB25AA45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14575E47-D199-497D-9B8E-568DF2975E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -550,6 +550,59 @@
   </si>
   <si>
     <t>It gets displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the name partiicular stock count tag column </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular checkbox ,it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Clear and Add tags" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Add tags' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and type and save </t>
+    </r>
+  </si>
+  <si>
+    <t>Activity-&gt;check box(new)</t>
   </si>
 </sst>
 </file>
@@ -699,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -743,6 +796,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,6 +1460,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14575E47-D199-497D-9B8E-568DF2975E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE8A5D-7B86-4855-9542-CF53E21772D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
     <t>It gets displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">It displayed the name partiicular stock count tag column </t>
+    <t>Activity-&gt;check box(new)</t>
   </si>
   <si>
     <r>
@@ -598,11 +598,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">and type and save </t>
-    </r>
-  </si>
-  <si>
-    <t>Activity-&gt;check box(new)</t>
+      <t xml:space="preserve">and type and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the name partiicular stock count tag column "Updated successfully"</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,13 +1492,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>11</v>
@@ -1485,5 +1506,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE8A5D-7B86-4855-9542-CF53E21772D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B910C5-ACF8-407C-94C7-ACBC5391E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>SL. No</t>
   </si>
@@ -525,6 +525,83 @@
     <t>It should display the 'History' pop up screen ,in there Date, User, Qty</t>
   </si>
   <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <t>Activity-&gt;check box(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular checkbox ,it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Clear and Add tags" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Add tags' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and type and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the name partiicular stock count tag column "Updated successfully"</t>
+  </si>
+  <si>
     <r>
       <t>There is a new</t>
     </r>
@@ -536,7 +613,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 'Stock count correction' </t>
+      <t xml:space="preserve"> 'Stock count amendment' </t>
     </r>
     <r>
       <rPr>
@@ -545,85 +622,11 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>pop up screen detail page. It shows the previous qty and the amended qty.</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed</t>
-  </si>
-  <si>
-    <t>Activity-&gt;check box(new)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the particular checkbox ,it shows the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Clear and Add tags" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Add tags' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and type and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the name partiicular stock count tag column "Updated successfully"</t>
+      <t>pop up screen detail page. It shows the previous qty and the Updated qty.</t>
+    </r>
+  </si>
+  <si>
+    <t>As we expected the result it displayed the Previous qty and Updated qty details</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,6 +1327,9 @@
       <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1339,9 +1345,14 @@
         <v>23</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1383,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1492,13 +1503,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>11</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AE8A5D-7B86-4855-9542-CF53E21772D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F805D30-892C-4C06-8B59-B65063BB54F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,22 +237,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown and start stock count</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">After clicks the start stock count it goes to New stock count screen </t>
   </si>
   <si>
@@ -624,6 +608,22 @@
   </si>
   <si>
     <t>It displayed the name partiicular stock count tag column "Updated successfully"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the date) and start stock count</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,10 +1158,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -1273,7 +1273,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
@@ -1296,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1319,10 +1319,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -1357,7 +1357,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>27</v>
@@ -1366,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1400,13 +1400,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>11</v>
@@ -1423,13 +1423,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>11</v>
@@ -1446,13 +1446,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>11</v>
@@ -1469,13 +1469,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>11</v>
@@ -1492,13 +1492,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>11</v>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F805D30-892C-4C06-8B59-B65063BB54F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6132B-3828-456E-B765-0E2F65E58DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6132B-3828-456E-B765-0E2F65E58DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF17C14-BD90-42F9-8184-277BF908BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -76,54 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">It displayed the particular Type of sku activity details </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Activity -&gt; All types</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Stock count and Adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the All types dropdown 2 types they are Stock count and Adjustment                                                                                                               1.If you select Stock count ,it will show based on Stock count types                                    2.If you select Adjustment ,it will show based on Adjustment types </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Activity -&gt; All lists</t>
-    </r>
-  </si>
-  <si>
-    <t>Select particular from the list it displayed the details of that</t>
   </si>
   <si>
     <t>1.Once click the Select range date and give From and To dates
 2.If you click 'X' then return back to all lists</t>
   </si>
   <si>
-    <t>In the All lists dropdown shows the list added and if you select All lists then it comes all lists table</t>
-  </si>
-  <si>
     <t>It gets displayed the Adjustment record pop up page</t>
   </si>
   <si>
@@ -321,133 +279,6 @@
     <t>Enter the required data and click Save button then it comes Successfully record added</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Activity"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,It get display the Date Select range, All Types, All Lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown    2.It gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Date, Type, List, Created by, Est.value" </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Activity",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">It should display the Select range, All types, All lists dropdown, New stock count, Record adjustment and Export
-2.It should have the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"Date, Type, List, Created by, Est.value"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                 *In the 'Date' will be renamed to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Created'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to be clearer. The 'Type' filter will also include a new option </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Stock count amendments'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.(new implementation)</t>
-    </r>
-  </si>
-  <si>
     <t>If click the Export It will download the file                                                              *When exporting the data from this page we will include the 'Stock count corrections' in similar format to 'Adjustments'.</t>
   </si>
   <si>
@@ -624,6 +455,164 @@
       </rPr>
       <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the date) and start stock count</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Activity",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It should display the Select range, New stock count, Adjustment, Consumption report, Filter and Export
+2.It should have the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Created, Type, List, Tag and Est.value"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Activity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,It get display the Date Select range, Filter and Export                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   2.It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Created, Type, List, Tag and Est.value"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Activity -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter &gt; Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In the Type filter it should have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Search box, Select all/Deselect all, checkboxes of Stock count, Stock count amendments, wastage, Promotion, Missing, Found, Transfer in, Transfer out and UOM conversation'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Activity -&gt; Filter &gt; List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the list filter shows the list of Products </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Search box, Select all/Deselect all'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the select a Type and Apply the Reset, Once click the Reset its clear the Type</t>
+  </si>
+  <si>
+    <t>It gets displayed the select a List and Apply the Reset, Once click the Reset its clear the list</t>
   </si>
 </sst>
 </file>
@@ -773,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -792,11 +781,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -818,10 +804,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -1181,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1190,7 +1173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1201,16 +1184,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,16 +1204,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,13 +1224,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1270,13 +1247,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1293,13 +1270,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -1316,13 +1293,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -1353,16 +1330,16 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1377,13 +1354,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1399,16 +1376,16 @@
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="E13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1422,16 +1399,16 @@
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1445,16 +1422,16 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1468,16 +1445,16 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1491,16 +1468,16 @@
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="D17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Outlet -Activity testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF17C14-BD90-42F9-8184-277BF908BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EAF2A3-8DE3-4B7B-8F20-6ABE7F5BAE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>SL. No</t>
   </si>
@@ -118,32 +118,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">It we take </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adjustment record</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,it will comse pop up on the Created date and name                                                                                                                                   1.Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes         2.If you click 'X' the returns back to Activity page                           </t>
-    </r>
-  </si>
-  <si>
     <t>It display the details of exact item</t>
   </si>
   <si>
@@ -198,8 +172,23 @@
     <t xml:space="preserve">After clicks the start stock count it goes to New stock count screen </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to New </t>
+    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the SKU page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
+  </si>
+  <si>
+    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
+  </si>
+  <si>
+    <t>Activity-&gt;New stock count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
     </r>
     <r>
       <rPr>
@@ -210,251 +199,148 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>stock count page</t>
-    </r>
-  </si>
-  <si>
-    <t>It dispalyed New stock count screen, SKU name search box, Name, Supplier, UOM, Last count, Counted, Qty and Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the SKU page </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outlets-&gt;SKU-&gt; Record adjustment</t>
-  </si>
-  <si>
-    <t>By clicking Record adjustment ,it shows pop up screen "Outlet, Reason, Item name dropdown, Inventory list, UOM, Quantity, Notes and Save"</t>
-  </si>
-  <si>
-    <t>Activity-&gt;New stock count</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">Save button </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Save button </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">,it shows Update stock count? And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">,it shows Update stock count? And </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Save stock count</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Save stock count</t>
-    </r>
-    <r>
-      <rPr>
+      <t>,after clicking it returns back to Activity screen</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter the required data and click Save button then it comes Successfully record added</t>
+  </si>
+  <si>
+    <t>If click the Export It will download the file                                                              *When exporting the data from this page we will include the 'Stock count corrections' in similar format to 'Adjustments'.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.And search SKU and find the exact item                                                               2.Top right side</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Created by Buyer_Manual_01 date and Last updated date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will show the timestamp of the most recent amendment if any (new implementation)</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <t>Activity-&gt;check box(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular checkbox ,it shows the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,after clicking it returns back to Activity screen</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter the required data and click Save button then it comes Successfully record added</t>
-  </si>
-  <si>
-    <t>If click the Export It will download the file                                                              *When exporting the data from this page we will include the 'Stock count corrections' in similar format to 'Adjustments'.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It goes to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stock count screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in there "As of date and Est.value"                      1.How many items and SKU search box and Export</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.And search SKU and find the exact item                                                               2.Top right side</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Created by Buyer_Manual_01 date and Last updated date"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will show the timestamp of the most recent amendment if any (new implementation)</t>
-    </r>
-  </si>
-  <si>
-    <t>If the qty has been amended, the value for the column is clickable and can show previously recorded quantities</t>
-  </si>
-  <si>
-    <t>It should display the 'History' pop up screen ,in there Date, User, Qty</t>
-  </si>
-  <si>
-    <r>
-      <t>There is a new</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'Stock count correction' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF172B4D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>pop up screen detail page. It shows the previous qty and the amended qty.</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed</t>
-  </si>
-  <si>
-    <t>Activity-&gt;check box(new)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the particular checkbox ,it shows the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">"Clear and Add tags" </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"Clear and Add tags" </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">and once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">and once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">'Add tags' </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">'Add tags' </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">and type and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">and type and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Save</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
     <t>It displayed the name partiicular stock count tag column "Updated successfully"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it shows pop up page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Outlet dropdown, Inventory list dropdown, Count date (by default select the date) and start stock count</t>
-    </r>
   </si>
   <si>
     <r>
@@ -613,13 +499,97 @@
   </si>
   <si>
     <t>It gets displayed the select a List and Apply the Reset, Once click the Reset its clear the list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It we take </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adjustment record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,it will comse pop up on the Created date and name                                                                                                                                   1.Outlet, Reason, Item name, Inventory list, UOM, Quantity, Notes                     2.If you click 'X' the returns back to Activity page                           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It goes to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stock count screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in there "As of date and Est.value"                      1.How many items and SKU search box, Add tags and Export</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it shows pop up page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Outlet dropdown, Inventory list dropdown and start stock count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select Outlet and Inventory and click Start stock count ,it goes to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New stock count page</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,19 +651,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF172B4D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF172B4D"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -762,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -799,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1085,23 +1039,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="48.1796875" customWidth="1"/>
+    <col min="5" max="5" width="63.54296875" customWidth="1"/>
+    <col min="6" max="6" width="52.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1141,16 +1095,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1173,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1184,16 +1138,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1204,16 +1158,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1227,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1236,7 +1190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1250,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
@@ -1259,7 +1213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1273,16 +1227,16 @@
         <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1292,17 +1246,20 @@
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1313,14 +1270,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1330,20 +1292,20 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>33</v>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1353,20 +1315,20 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1377,19 +1339,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1400,19 +1362,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1422,62 +1384,16 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>30</v>
+      <c r="D15" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>11</v>
       </c>
     </row>
